--- a/Deliverables/Code Review/Code Review Criteria.xlsx
+++ b/Deliverables/Code Review/Code Review Criteria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\GitHub\Group-3-Repository\Deliverables\Code Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F089EB-917F-4015-A77A-C1D23B0E00B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C51C45-2631-4A2A-B85F-5D0A9B87292A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31CC967A-23D1-4812-8F73-68A6D0814E2C}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Review Criteria</t>
   </si>
   <si>
-    <t>(Game) Code readability</t>
-  </si>
-  <si>
     <t>Security in Word Press</t>
   </si>
   <si>
@@ -67,6 +64,18 @@
   </si>
   <si>
     <t>What to do if website goes down?</t>
+  </si>
+  <si>
+    <t>Outstanding Bugs/Glitches</t>
+  </si>
+  <si>
+    <t>Code readability (only applicable to game)</t>
+  </si>
+  <si>
+    <t>Aesthetic Design</t>
+  </si>
+  <si>
+    <t>Is responsive to multiple devices</t>
   </si>
 </sst>
 </file>
@@ -418,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A74BB3-BF8D-4A55-9D16-A52FBFD549DD}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,52 +445,67 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
